--- a/jour6.xlsx
+++ b/jour6.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Michelin', "N'Diaye", 'Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Pele', 'Pele', 'Sibide']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Le_Fee']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Wieteska']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Gusto', 'Bercola']</t>
-  </si>
-  <si>
-    <t>['Bamba', 'Masson', 'Sima']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Mothiba', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Cabella', 'Cabella', 'David']</t>
-  </si>
-  <si>
-    <t>['Pellenard', 'Dembele']</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen']</t>
+    <t>['Boyer', 'Rajot']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Magnetti', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Masson', 'Doumbia', 'Guillaume']</t>
+  </si>
+  <si>
+    <t>['Andre', 'Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Michelin', 'Lebas', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Mollet', 'Girotto', 'Girotto', 'Delort']</t>
+  </si>
+  <si>
+    <t>['Boura', 'Varane', 'Fortes', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Attal', 'Laborde']</t>
+  </si>
+  <si>
+    <t>['Healey']</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lille</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>AS Monaco</t>
   </si>
   <si>
+    <t>Rennes</t>
+  </si>
+  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Nordin', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Fortes', 'Gradit', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Kabore']</t>
-  </si>
-  <si>
-    <t>['Conte']</t>
-  </si>
-  <si>
-    <t>['Lopy']</t>
-  </si>
-  <si>
-    <t>['Ramos', 'Ruiz']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Chardonnet', 'Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Attal']</t>
-  </si>
-  <si>
-    <t>['Guessand', 'Ganago', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Terrier', 'Majer', 'Traore']</t>
+    <t>['Ito', 'Flips', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Gusto', 'Sanchez', 'Cherki']</t>
+  </si>
+  <si>
+    <t>['Jeanvier', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Kabore']</t>
+  </si>
+  <si>
+    <t>['Maouassa']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Serrano', 'Jakobs', 'Sibide', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Gouiri']</t>
+  </si>
+  <si>
+    <t>['Silva', 'Innocent', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Balde']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -709,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour6.xlsx
+++ b/jour6.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Boyer', 'Rajot']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Magnetti', 'Tavares']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Masson', 'Doumbia', 'Guillaume']</t>
-  </si>
-  <si>
-    <t>['Andre', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Michelin', 'Lebas', 'Hamouma']</t>
-  </si>
-  <si>
-    <t>['Mollet', 'Girotto', 'Girotto', 'Delort']</t>
-  </si>
-  <si>
-    <t>['Boura', 'Varane', 'Fortes', 'Medina']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Attal', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['Healey']</t>
+    <t>['Silva']</t>
+  </si>
+  <si>
+    <t>['Lepenant', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'ChaÃ¯bi', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Savanier', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Gastien', 'Maurer']</t>
+  </si>
+  <si>
+    <t>['Zeneli', 'Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Magnetti', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Bailly', 'Payet', 'Clauss']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Gradit']</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Angers</t>
+    <t>Ajaccio</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>['Ito', 'Flips', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Gusto', 'Sanchez', 'Cherki']</t>
-  </si>
-  <si>
-    <t>['Jeanvier', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Maouassa']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Serrano', 'Jakobs', 'Sibide', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Gouiri']</t>
-  </si>
-  <si>
-    <t>['Silva', 'Innocent', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Odobert', 'Balde']</t>
+    <t>['Bryan', 'Laborde']</t>
+  </si>
+  <si>
+    <t>['H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Bamba']</t>
+  </si>
+  <si>
+    <t>['Jeanvier', 'Pellenard']</t>
+  </si>
+  <si>
+    <t>['Assignon', 'Rodon', 'Theate']</t>
+  </si>
+  <si>
+    <t>['Balde', 'Ripart']</t>
+  </si>
+  <si>
+    <t>['Messi']</t>
+  </si>
+  <si>
+    <t>['Gonzalez', 'Alphonse', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson', 'Yoro', 'Martin']</t>
+  </si>
+  <si>
+    <t>['Castelletto']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour6.xlsx
+++ b/jour6.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Silva']</t>
-  </si>
-  <si>
-    <t>['Lepenant', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'ChaÃ¯bi', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Gastien', 'Maurer']</t>
-  </si>
-  <si>
-    <t>['Zeneli', 'Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Magnetti', 'Mounie']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Payet', 'Clauss']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Gradit']</t>
+    <t>['Vidal', 'Michelin', 'Vidal']</t>
+  </si>
+  <si>
+    <t>['Mollet', 'Ganago', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Le_Goff']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Varane', 'Fortes']</t>
+  </si>
+  <si>
+    <t>['Balerdi', 'Rongier']</t>
+  </si>
+  <si>
+    <t>['Savanier', 'Mavididi']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Borges']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Da_Costa']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>OM</t>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
   </si>
   <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Bamba']</t>
-  </si>
-  <si>
-    <t>['Jeanvier', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Assignon', 'Rodon', 'Theate']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Ripart']</t>
-  </si>
-  <si>
-    <t>['Messi']</t>
-  </si>
-  <si>
-    <t>['Gonzalez', 'Alphonse', 'Hamouma']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson', 'Yoro', 'Martin']</t>
-  </si>
-  <si>
-    <t>['Castelletto']</t>
+    <t>['Sanches', 'Soler', 'Messi']</t>
+  </si>
+  <si>
+    <t>['Wooh', 'Majer']</t>
+  </si>
+  <si>
+    <t>['Brahimi', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Yoro', 'David']</t>
+  </si>
+  <si>
+    <t>['Onaiwu', 'Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Gusto', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Mounie', 'Duverne', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Ugbo', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Delaine', 'Sanson']</t>
+  </si>
+  <si>
+    <t>['Pele', 'Ben_Seguir', 'Aguilar']</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,15 +573,15 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,12 +631,12 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,12 +776,12 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,15 +805,15 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour6.xlsx
+++ b/jour6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,115 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Vidal', 'Michelin', 'Vidal']</t>
-  </si>
-  <si>
-    <t>['Mollet', 'Ganago', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Matsima', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Varane', 'Fortes']</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Rongier']</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Mavididi']</t>
-  </si>
-  <si>
-    <t>['Wieteska', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Lipinski', 'Da_Costa']</t>
+    <t>['Aguilar', 'Jakobs', 'Ben_Yedder', 'Sibide']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Silva', 'Matsima', 'Kroupi']</t>
+  </si>
+  <si>
+    <t>['Jeanvier', 'Lipinski', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Lega', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Vidal', 'Michelin']</t>
+  </si>
+  <si>
+    <t>['Sanson', 'Djiku', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Bailly']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>['Le_Douaron']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson']</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Soler', 'Messi']</t>
-  </si>
-  <si>
-    <t>['Wooh', 'Majer']</t>
-  </si>
-  <si>
-    <t>['Brahimi', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'David']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Gusto', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Mounie', 'Duverne', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Ugbo', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Sanson']</t>
-  </si>
-  <si>
-    <t>['Pele', 'Ben_Seguir', 'Aguilar']</t>
+    <t>['Wooh', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Attal', 'Beka', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Mbappe']</t>
+  </si>
+  <si>
+    <t>['Palaversa', 'Conte', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Guessand', 'Blas']</t>
+  </si>
+  <si>
+    <t>['Boyer', 'Wieteska']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Masson', 'Alioui']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +540,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,10 +552,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,12 +564,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -590,10 +581,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +593,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,27 +610,27 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -651,16 +642,16 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,24 +671,24 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -715,18 +706,18 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -738,24 +729,24 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,27 +755,27 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +784,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -802,15 +793,15 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -822,7 +813,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -831,7 +822,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour6.xlsx
+++ b/jour6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,115 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Vidal', 'Michelin', 'Vidal']</t>
-  </si>
-  <si>
-    <t>['Mollet', 'Ganago', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Matsima', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Varane', 'Fortes']</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Rongier']</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Mavididi']</t>
-  </si>
-  <si>
-    <t>['Wieteska', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Lipinski', 'Da_Costa']</t>
+    <t>['Embolo', 'Pele', 'Ben_Seguir']</t>
+  </si>
+  <si>
+    <t>['Dante', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Boura', 'Boura']</t>
+  </si>
+  <si>
+    <t>['Ripart', 'Chavalerin']</t>
+  </si>
+  <si>
+    <t>['Bercola', 'Cherki']</t>
+  </si>
+  <si>
+    <t>['Bellegarde', 'Gameiro']</t>
+  </si>
+  <si>
+    <t>['Silva', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Alioui', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Nordin']</t>
+  </si>
+  <si>
+    <t>['Gouiri']</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>['Girotto', 'Guessand']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Soler', 'Messi']</t>
-  </si>
-  <si>
-    <t>['Wooh', 'Majer']</t>
-  </si>
-  <si>
-    <t>['Brahimi', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'David']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Gusto', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Mounie', 'Duverne', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Ugbo', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Sanson']</t>
-  </si>
-  <si>
-    <t>['Pele', 'Ben_Seguir', 'Aguilar']</t>
+    <t>['Andre']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Maurer']</t>
+  </si>
+  <si>
+    <t>['Michelin', 'Gonzalez', 'Lebas', 'Lebas']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Pellenard', 'Lipinski']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +540,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -564,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,12 +564,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -590,10 +581,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +593,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -622,16 +613,16 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -651,24 +642,24 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,24 +671,24 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -709,24 +700,24 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -738,24 +729,24 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,27 +755,27 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +784,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -802,15 +793,15 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -822,7 +813,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -831,7 +822,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour6.xlsx
+++ b/jour6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,115 +40,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Aguilar', 'Jakobs', 'Ben_Yedder', 'Sibide']</t>
-  </si>
-  <si>
-    <t>['Pelon', 'Silva', 'Matsima', 'Kroupi']</t>
-  </si>
-  <si>
-    <t>['Jeanvier', 'Lipinski', 'Bain']</t>
-  </si>
-  <si>
-    <t>['Lega', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Vidal', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Sanson', 'Djiku', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Bailly']</t>
+    <t>['Ugbo', 'Palaversa', 'Conte']</t>
+  </si>
+  <si>
+    <t>['Varane', 'Fortes', 'Sylla']</t>
+  </si>
+  <si>
+    <t>['Moffi', 'Bryan']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand', 'Perrin']</t>
+  </si>
+  <si>
+    <t>['Mounie']</t>
+  </si>
+  <si>
+    <t>['Nordin', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Capelle', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Balerdi']</t>
+  </si>
+  <si>
+    <t>['Maripan']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson']</t>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
   <si>
     <t>AS Monaco</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
     <t>Lorient</t>
   </si>
   <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>['Wooh', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Attal', 'Beka', 'Brahimi']</t>
-  </si>
-  <si>
-    <t>['Mbappe']</t>
-  </si>
-  <si>
-    <t>['Palaversa', 'Conte', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Guessand', 'Blas']</t>
-  </si>
-  <si>
-    <t>['Boyer', 'Wieteska']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Masson', 'Alioui']</t>
+    <t>['Gomes']</t>
+  </si>
+  <si>
+    <t>['Bayo']</t>
+  </si>
+  <si>
+    <t>['Silva']</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Sanches', 'Soler']</t>
+  </si>
+  <si>
+    <t>['Tagliafico', 'Gusto', 'Caqueret']</t>
+  </si>
+  <si>
+    <t>['Theate', 'Theate', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Lipinski']</t>
+  </si>
+  <si>
+    <t>['Zeneli']</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -552,16 +555,16 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -569,7 +572,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -581,16 +584,16 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -598,7 +601,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -610,16 +613,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -627,7 +630,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -642,13 +645,13 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -656,10 +659,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -668,7 +671,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -680,15 +683,15 @@
         <v>40</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -697,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -709,15 +712,15 @@
         <v>41</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -729,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -738,15 +741,15 @@
         <v>42</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -755,24 +758,24 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -793,7 +796,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -801,7 +804,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -813,16 +816,16 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour6.xlsx
+++ b/jour6.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Serhuis', 'Flips', 'Abdelhamid', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Gameiro', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Fortes', 'Pereira', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Chavalerin', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Germain', 'Maouassa']</t>
-  </si>
-  <si>
-    <t>['Caqueret']</t>
-  </si>
-  <si>
-    <t>['Tavares', 'Magnetti']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Rajot']</t>
-  </si>
-  <si>
-    <t>['Rodon', 'Wooh']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Wahi', 'Khazri', 'Tchato', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Da_Costa', 'Lipinski']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Salmier']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Maurer', 'Versini']</t>
+  </si>
+  <si>
+    <t>['Kipembe', 'Neymar']</t>
+  </si>
+  <si>
+    <t>['Gigot']</t>
+  </si>
+  <si>
+    <t>['Lopy', 'Cajuste', 'Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Burlet']</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lorient</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>['Serrano', 'Serrano', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Dembele']</t>
-  </si>
-  <si>
-    <t>['Ruiz', 'Ramos']</t>
-  </si>
-  <si>
-    <t>['Coco', 'Simon']</t>
-  </si>
-  <si>
-    <t>['Diop']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Cabella', 'Cabella']</t>
-  </si>
-  <si>
-    <t>['Roure', 'Michelin', 'Diallo']</t>
-  </si>
-  <si>
-    <t>['Rongier', 'Clauss', 'Bailly', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Bamba', 'Camara']</t>
+    <t>['Bercola']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Blas', 'Blas']</t>
+  </si>
+  <si>
+    <t>['Attal', 'Pepe']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Delaine', 'Djiku']</t>
+  </si>
+  <si>
+    <t>['Henrique', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Pelon']</t>
+  </si>
+  <si>
+    <t>['Traore', 'Traore', 'Theate', 'Wooh']</t>
+  </si>
+  <si>
+    <t>['Michelin', 'Diallo', 'Alphonse']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Bamba']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -578,10 +578,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,12 +631,12 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,12 +747,12 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>2</v>

--- a/jour6.xlsx
+++ b/jour6.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,127 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Wahi', 'Khazri', 'Tchato', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Da_Costa', 'Lipinski']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Salmier']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Maurer', 'Versini']</t>
-  </si>
-  <si>
-    <t>['Kipembe', 'Neymar']</t>
-  </si>
-  <si>
-    <t>['Gigot']</t>
-  </si>
-  <si>
-    <t>['Lopy', 'Cajuste', 'Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Medina']</t>
-  </si>
-  <si>
-    <t>['Burlet']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Michelin', 'Roure', 'Diallo', 'Michelin']</t>
+  </si>
+  <si>
+    <t>['Talbi', 'Matsima', 'Silva']</t>
+  </si>
+  <si>
+    <t>['Payet', 'Balerdi']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Andre', 'Cabella']</t>
+  </si>
+  <si>
+    <t>['Dante', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Onaiwu', 'Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>['Gouiri']</t>
+  </si>
+  <si>
+    <t>['Savanier']</t>
+  </si>
+  <si>
+    <t>['Maurer']</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
     <t>Auxerre</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>['Bercola']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Blas', 'Blas']</t>
-  </si>
-  <si>
-    <t>['Attal', 'Pepe']</t>
-  </si>
-  <si>
-    <t>['Spierings', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Djiku']</t>
-  </si>
-  <si>
-    <t>['Henrique', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Pelon']</t>
-  </si>
-  <si>
-    <t>['Traore', 'Traore', 'Theate', 'Wooh']</t>
-  </si>
-  <si>
-    <t>['Michelin', 'Diallo', 'Alphonse']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Bamba']</t>
+    <t>['Gameiro', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Tavares', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Le_Cardinal', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Pallois']</t>
+  </si>
+  <si>
+    <t>['Capelle', 'Capelle']</t>
+  </si>
+  <si>
+    <t>['Autret', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Moalida', 'Balogin', 'Lopy']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Palaversa', 'Palaversa', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Ruiz']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +552,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
+      <c r="G2">
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
         <v>39</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
+      <c r="K11">
         <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour6.xlsx
+++ b/jour6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,124 +46,121 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Michelin', 'Roure', 'Diallo', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Matsima', 'Silva']</t>
-  </si>
-  <si>
-    <t>['Payet', 'Balerdi']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Bercola']</t>
-  </si>
-  <si>
-    <t>['Andre', 'Cabella']</t>
-  </si>
-  <si>
-    <t>['Dante', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Gouiri']</t>
-  </si>
-  <si>
-    <t>['Savanier']</t>
-  </si>
-  <si>
-    <t>['Maurer']</t>
+    <t>['Savanier', 'Sainte-Luce', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Kroupi', 'Kroupi', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Gigot']</t>
+  </si>
+  <si>
+    <t>['Diallo', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Gastien']</t>
+  </si>
+  <si>
+    <t>['Fonte']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OM</t>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nice</t>
+    <t>Reims</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Clermont</t>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Tavares', 'Mounie']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Pallois']</t>
-  </si>
-  <si>
-    <t>['Capelle', 'Capelle']</t>
-  </si>
-  <si>
-    <t>['Autret', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Moalida', 'Balogin', 'Lopy']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Palaversa', 'Palaversa', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Ruiz']</t>
+    <t>['Kalimuendo', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Girotto', 'Simon', 'Coco']</t>
+  </si>
+  <si>
+    <t>['Tolisso']</t>
+  </si>
+  <si>
+    <t>['Serhuis']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal', 'Healey', 'Aboukhlal']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Sibide', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Camara', 'Guillaume', 'Masson', 'Sima', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Boura', 'Sylla', 'Pereira']</t>
+  </si>
+  <si>
+    <t>['Lienard', 'Perrin', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Salmier']</t>
   </si>
 </sst>
 </file>
@@ -561,10 +558,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -573,25 +570,25 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -599,182 +596,182 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -783,65 +780,65 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -853,60 +850,60 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/jour6.xlsx
+++ b/jour6.xlsx
@@ -46,121 +46,121 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Savanier', 'Sainte-Luce', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Kroupi', 'Kroupi', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Gigot', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Diallo', "N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Gastien']</t>
-  </si>
-  <si>
-    <t>['Fonte']</t>
+    <t>['Djiku', 'Mothiba', 'Mothiba', 'Delaine', 'Le_Marchand']</t>
+  </si>
+  <si>
+    <t>['Diallo', 'Silla', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Rajot', 'Rajot', 'Maurer']</t>
+  </si>
+  <si>
+    <t>['Lega', 'Tolisso', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Sima', 'Mendy']</t>
+  </si>
+  <si>
+    <t>['Mbappe', 'Verrati']</t>
+  </si>
+  <si>
+    <t>['Ribeiro', 'Yoro']</t>
+  </si>
+  <si>
+    <t>['Wahi', 'Mavididi']</t>
+  </si>
+  <si>
+    <t>['Flips']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>Montpellier</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Girotto', 'Simon', 'Coco']</t>
-  </si>
-  <si>
-    <t>['Tolisso']</t>
-  </si>
-  <si>
-    <t>['Serhuis']</t>
-  </si>
-  <si>
-    <t>['Aboukhlal', 'Healey', 'Aboukhlal']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Sibide', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Camara', 'Guillaume', 'Masson', 'Sima', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Boura', 'Sylla', 'Pereira']</t>
-  </si>
-  <si>
-    <t>['Lienard', 'Perrin', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Salmier']</t>
+    <t>['Ganiou', 'Medina', 'Fortes']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Laborde', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Da_Costa']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'Ratao']</t>
+  </si>
+  <si>
+    <t>['Guessand', 'Guessand']</t>
+  </si>
+  <si>
+    <t>['Le_Goff']</t>
+  </si>
+  <si>
+    <t>['Henrique']</t>
+  </si>
+  <si>
+    <t>['Bailly']</t>
   </si>
 </sst>
 </file>
@@ -558,10 +558,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -570,68 +570,68 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -640,33 +640,33 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>9</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -675,16 +675,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
         <v>42</v>
@@ -693,147 +693,147 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
         <v>43</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
         <v>45</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -841,60 +841,60 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
         <v>47</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
         <v>48</v>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
